--- a/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_7_9.xlsx
+++ b/fuction_ensemble_1/redes-ensemble-s/Teste03/content/results/metrics_7_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_24</t>
+          <t>model_7_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994781641336509</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6645627567814819</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9992449007681052</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9992329440356753</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9993487117720986</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003097843124005376</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1991300377089301</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002840341903583646</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001917221887825371</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002378781895704508</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01215563269293051</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01760069067964487</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000305464897375</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01834998852032983</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P2" t="n">
-        <v>146.1592685381855</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.3861971546186</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_23</t>
+          <t>model_7_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9994677487234028</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6645279414369178</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999230246654869</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9992190550140188</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9993364134887818</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003159673498460424</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1991507056014079</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002895464051940445</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000195193687285772</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002423700462399082</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01227685780358877</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0177754704535785</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000311561722886</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01853220903108383</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P3" t="n">
-        <v>146.1197433459752</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.3466719624082</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_22</t>
+          <t>model_7_9_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999457147226208</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6644926454393772</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999215382782485</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9992050277996154</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993239599079027</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003222608565416799</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1991716588302557</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002951375219372117</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001986997264445861</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002469186241908989</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01239912837771666</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01795162545681253</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000317767477342</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01871586331749666</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P4" t="n">
-        <v>146.0802984538024</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q4" t="n">
-        <v>225.3072270702355</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_21</t>
+          <t>model_7_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999446310303162</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6644567857749264</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9992001404934051</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9991906348029608</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999311186308362</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003286941221925639</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1991929466761306</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003008709819317926</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002022971912321795</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002515840865819861</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01252285083734375</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01812992339180075</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000324111042052</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01890175176470493</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P5" t="n">
-        <v>146.0407659188717</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q5" t="n">
-        <v>225.2676945353047</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_20</t>
+          <t>model_7_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994352546382135</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6644202498537447</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9991846027140059</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9991758698778411</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9992981332891164</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003352572424858178</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1992146359772136</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003067155920243488</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002059876178670126</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002563516049456807</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01264767560250052</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01831003119838461</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000330582650802</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01908952713348963</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P6" t="n">
-        <v>146.001224865594</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q6" t="n">
-        <v>225.228153482027</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_19</t>
+          <t>model_7_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9994240164569835</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6643841119350735</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9991688613047646</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9991613480068225</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9992850585773555</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003419287123280605</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1992360890068137</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0003126367984567152</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002096172942223082</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002611270463395118</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01277367402430907</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01849131451054955</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000337161098351</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01927852805156162</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P7" t="n">
-        <v>145.9618165722285</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q7" t="n">
-        <v>225.1887451886615</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_18</t>
+          <t>model_7_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994125521630103</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6643472437645629</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9991528368858664</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999146477653838</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9992717188952018</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003487344124623556</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1992579755454508</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0003186644603261055</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002133340720778522</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002659992662019788</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01290086297561607</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01867443205193549</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000343871904579</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01946944128578993</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P8" t="n">
-        <v>145.922399842552</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q8" t="n">
-        <v>225.1493284589851</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_17</t>
+          <t>model_7_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9994008225733851</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6643095113710735</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9991363835790932</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991310359327337</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9992579628608211</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003556976035557112</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1992803751241806</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003248534504225822</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00021719366082545</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000271023555624016</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0130296146681746</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01885994707192232</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000350738005823</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01966285406424663</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P9" t="n">
-        <v>145.8828592325902</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.1097878490233</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_16</t>
+          <t>model_7_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993888916577113</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6642716759881029</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9991196922424985</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9991156044091013</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999244087744972</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G10" t="n">
-        <v>0.000362780310488416</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1993028358419154</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003311319765757147</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002210507007608021</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002760913386682584</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0131593557754752</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01904679265620372</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000357721956462</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01985765405187457</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P10" t="n">
-        <v>145.8434262243522</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.0703548407853</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_15</t>
+          <t>model_7_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9993767129361054</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6642333056629992</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991026347767231</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9990998812993868</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9992299243250093</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003700101257270352</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1993256141244087</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003375482239726591</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002249806213261078</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002812644226493834</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01329047628270191</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01923564726561171</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000364850964231</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02005454859298799</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P11" t="n">
-        <v>145.8039603717413</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.0308889881743</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_14</t>
+          <t>model_7_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9993642755495006</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6641941134043134</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9990852334086066</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9990836539245834</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9992154112753481</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003773934956828255</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H12" t="n">
-        <v>0.199348880342182</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0003440938318813317</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002290365806826364</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002865652062819841</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01342304019095154</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01942661822559</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000372131385658</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02025364958209694</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P12" t="n">
-        <v>145.7644443194461</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.9913729358792</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_13</t>
+          <t>model_7_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9993515679431817</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6641542350586311</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999067411238269</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9990668304797652</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999200477584981</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003849372797336865</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1993725538508338</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003507977265595752</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002332415250588421</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002920196258092087</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01355704217342638</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01961981854487158</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000379569984479</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02045507483895013</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P13" t="n">
-        <v>145.7248602934607</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.9517889098938</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999338603594255</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C14" t="n">
-        <v>0.664113572521652</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9990492489726704</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9990497702448464</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9991852877455588</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003926334772872967</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1993966928893147</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0003576295496981143</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002375056540558086</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002975676018769615</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01369239020489795</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01981498113265054</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000387158871656</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02065854590213309</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P14" t="n">
-        <v>145.6852680180612</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q14" t="n">
-        <v>224.9121966344942</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_11</t>
+          <t>model_7_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9993253838466301</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6640725284145287</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9990307258822118</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9990323465703356</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9991697877477581</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0004004812905408205</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1994210584443163</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003645970988349211</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002418606231444028</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003032288609896619</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01382908938646124</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02001202864631221</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000394897260509</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02086398213639593</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P15" t="n">
-        <v>145.6456870156019</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.8726156320349</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_10</t>
+          <t>model_7_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999311914993851</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6640311492927751</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990118866734335</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9990148168547707</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9991540886851256</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0004084769833746559</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1994456228784742</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0003716835573906685</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002462420967175616</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003089628270541151</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01396704971953637</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02021081352579989</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000402781467014</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02107122969974483</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P16" t="n">
-        <v>145.6061499789994</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.8330785954325</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_9</t>
+          <t>model_7_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9992981875380851</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6639895971863669</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9989927338426985</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9989971621402823</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9991381853564393</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0004166261941125093</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1994702900037957</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000378887986346654</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002506548132095364</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003147713997780952</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01410633547429381</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02041142312805527</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000410817050877</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02128037966808734</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P17" t="n">
-        <v>145.5666423103677</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q17" t="n">
-        <v>224.7935709268007</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_8</t>
+          <t>model_7_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9992841582765917</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6639467299208586</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9989731189658569</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9989788470112863</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9991218181326409</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0004249545697675319</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1994957378643708</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0003862662161571604</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002552325973377947</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003207494067474776</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01424726049845902</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02061442625365867</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000419029301507</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02149202505702209</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P18" t="n">
-        <v>145.5270565788363</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q18" t="n">
-        <v>224.7539851952693</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_7</t>
+          <t>model_7_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9992698435658436</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6639032971418179</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9989531078791002</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9989600965328437</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9991050976103721</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000433452400430888</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1995215214382077</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003937934822237591</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002599191951023802</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003268564533599754</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01438953457150117</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02081951969741108</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000427408644384</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02170584975327699</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P19" t="n">
-        <v>145.4874571414001</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q19" t="n">
-        <v>224.7143857578332</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_6</t>
+          <t>model_7_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9992552768669068</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6638598640358196</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9989327841517803</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E20" t="n">
-        <v>0.998941413529657</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9990882398131432</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0004420998221683583</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1995473052061408</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0004014383495346193</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002645889277302229</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003330136386324211</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01453299446855935</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02102616993578141</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000435935492542</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02192129752011972</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P20" t="n">
-        <v>145.4479497187504</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.6748783351834</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_5</t>
+          <t>model_7_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9992403876947549</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C21" t="n">
-        <v>0.663815255682783</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9989119654159739</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9989220476491978</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9990708934660918</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004509386779365176</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1995737866514839</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004092694166570346</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002694293424613797</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003393492631001555</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01467818799267463</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02123531676091783</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000444651105509</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0221393481585958</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P21" t="n">
-        <v>145.4083583936097</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.6352870100428</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_4</t>
+          <t>model_7_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9992252107824591</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C22" t="n">
-        <v>0.663770167012576</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9988907877564376</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E22" t="n">
-        <v>0.998902432235625</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990532762765809</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0004599483486837526</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1996005532338479</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004172354946584594</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002743321268720994</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003457838107652794</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01482474269956761</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M22" t="n">
-        <v>0.021446406428205</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000453535151731</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02235942435003523</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P22" t="n">
-        <v>145.3687927205114</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q22" t="n">
-        <v>224.5957213369445</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_3</t>
+          <t>model_7_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9992097131729838</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6637242950233749</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9988691761111771</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9988823015429039</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990352596202294</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0004691483991301854</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1996277848282044</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004253648184672659</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002793637029887119</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003523642607279889</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0149727860936156</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02165983377429719</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000462606923131</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02258193774010608</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P23" t="n">
-        <v>145.3291828470223</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q23" t="n">
-        <v>224.5561114634554</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_2</t>
+          <t>model_7_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9991939339571931</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6636785057925456</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9988471761342451</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9988621161716047</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990170239617242</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0004785156232501239</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1996549672936165</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004336402150930937</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002844089457700258</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003590246996013321</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01512218363136274</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02187499996000283</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000471843537253</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02280626399579262</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P24" t="n">
-        <v>145.2896433942676</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.5165720107007</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_1</t>
+          <t>model_7_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9991778163526299</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6636315019909421</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9988246771616878</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9988412365614527</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9989982947893548</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004880837295631526</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1996828707807068</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004421033113118242</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002896277104305667</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003658653907492959</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01527324357454525</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0220926170827078</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000481278232607</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02303314552994069</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P25" t="n">
-        <v>145.2500471797102</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q25" t="n">
-        <v>224.4769757961433</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_9_0</t>
+          <t>model_7_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9991613454499841</v>
+        <v>0.2710956945256739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6635833950061896</v>
+        <v>-3452.980849965791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9988016950933879</v>
+        <v>-0.7625090717268226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.998819721362062</v>
+        <v>0.2071568998810079</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9989790980613656</v>
+        <v>0.1320201911231227</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0004978615688795995</v>
+        <v>0.4327090827560529</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1997114291649694</v>
+        <v>2050.432236743472</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004507481263064666</v>
+        <v>0.1618923137712113</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002950053377630256</v>
+        <v>0.3624225951858516</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003728768531158784</v>
+        <v>0.2621574544785314</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01542596888293593</v>
+        <v>0.435423280352642</v>
       </c>
       <c r="M26" t="n">
-        <v>0.02231281176543197</v>
+        <v>0.6578062653669794</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000490919736595</v>
+        <v>-0.5903366664894385</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02326271435617426</v>
+        <v>0.6858104399303417</v>
       </c>
       <c r="P26" t="n">
-        <v>145.2103769874379</v>
+        <v>27.67537928217268</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.4373056038709</v>
+        <v>43.52076500545929</v>
       </c>
     </row>
   </sheetData>
